--- a/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
+++ b/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariagon\Documents\OptimalTaxation\Planner\GlobalAndEntrepreneurs\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\Documents\GitHub\OptimalTaxation\Planner\GlobalAndEntrepreneurs\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582A01C9-FFA0-493D-8AFD-FACB8EC89685}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903BF65-9EFF-42C0-AE73-388A515B23AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,40 +110,260 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149921</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>102296</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591339DC-E217-44C2-BA6C-04C4015DA70E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="6378358"/>
+          <a:ext cx="3018642" cy="1164790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>297363</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183061</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>32490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA754F92-3534-48C9-A4DF-30BF3A0546BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2920000" y="6415023"/>
+          <a:ext cx="2951965" cy="1250515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47258</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93B0BE8-22D7-4DDF-A514-29FD29E7C1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="457200"/>
+          <a:ext cx="2933333" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E058DC0E-9B76-464B-A80E-3D3491FE8A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="409576"/>
+          <a:ext cx="2162175" cy="1581182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66323</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECC49A7-C4C9-4519-A74B-0771092B2F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="2305050"/>
+          <a:ext cx="2819048" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AE1DAA-8C01-4572-B01A-8360B6FEA0CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2667002" y="1047751"/>
-          <a:ext cx="2933698" cy="1219200"/>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C167A3-46E7-4073-9EA0-92666DEED2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="2181225"/>
+          <a:ext cx="2000249" cy="1488075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -155,39 +375,435 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>143529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561063</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D6582B-60AF-443E-A9E1-23B07F3910C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5832433" y="4253630"/>
+          <a:ext cx="2257294" cy="1577841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>117432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291875D8-E5A6-46D5-A0EF-9D7DA6B8959E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2935788" y="4227535"/>
+          <a:ext cx="2790476" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>195718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591339DC-E217-44C2-BA6C-04C4015DA70E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="990600"/>
-          <a:ext cx="3000375" cy="1133475"/>
+      <xdr:colOff>287055</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E5F1ED-0FE8-4117-A77E-135FB32B5EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6302158" y="7828766"/>
+          <a:ext cx="2126815" cy="1528423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117431</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180359</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6895E31-D7CE-4F44-8710-2F38E2205A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419589" y="9616335"/>
+          <a:ext cx="1902688" cy="1378272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326198</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>39143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126598</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>112447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6751FDCE-8FC9-4998-B261-BAC917F3CE42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948835" y="9629383"/>
+          <a:ext cx="2866667" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300103</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138598</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>46160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B01DB09-5853-4EBC-831B-E94160037BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2922740" y="7959247"/>
+          <a:ext cx="2904762" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117433</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391691</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>130478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4601A100-5477-445E-BD51-00D87031566C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419591" y="11390856"/>
+          <a:ext cx="2114018" cy="1461369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234863</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143528</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>61979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEB3A35-3BAA-4294-B14A-750C8F63F42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="11403905"/>
+          <a:ext cx="2974932" cy="1184101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417534</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141743</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DFCE16-43F8-4095-A719-AEF0E179E3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040171" y="13113185"/>
+          <a:ext cx="2790476" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>13048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352295</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>108401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A19768F-3757-442D-919D-E2EB4F0DAA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6302159" y="13126233"/>
+          <a:ext cx="2192054" cy="1661106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -200,7 +816,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,13 +1112,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE778A9-4D3C-48C5-AB4C-FA27ECD4C5EC}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,46 +1152,88 @@
       <c r="B3">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C6">
-        <v>9.2665222587334402</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.272054</v>
+      <c r="C3">
+        <v>9.6896395130839696</v>
+      </c>
+      <c r="D3">
+        <v>1.349</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13">
+        <v>0.97</v>
+      </c>
+      <c r="C13">
+        <v>9.7369280364392701</v>
+      </c>
+      <c r="D13">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.95</v>
+      </c>
+      <c r="C22">
+        <v>9.5947749967907594</v>
+      </c>
+      <c r="D22">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C34">
+        <v>9.2665222587334402</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.272054</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>0.8</v>
       </c>
+      <c r="C41">
+        <v>9.1444436252343593</v>
+      </c>
+      <c r="D41">
+        <v>1.1910000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>0.7</v>
       </c>
+      <c r="C50">
+        <v>8.8217598645005495</v>
+      </c>
+      <c r="D50">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>0.6</v>
       </c>
+      <c r="C58">
+        <v>8.3962490039252806</v>
+      </c>
+      <c r="D58">
+        <v>1.0269999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>0.5</v>
+      </c>
+      <c r="C68">
+        <v>8.1177775451679697</v>
+      </c>
+      <c r="D68">
+        <v>0.93799999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
+++ b/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\Documents\GitHub\OptimalTaxation\Planner\GlobalAndEntrepreneurs\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariagon\Documents\OptimalTaxation\Planner\GlobalAndEntrepreneurs\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903BF65-9EFF-42C0-AE73-388A515B23AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2159B44C-1B10-4288-919B-78CCDF6F47B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
+    <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>gp</t>
   </si>
@@ -52,8 +52,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -89,6 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,9 +126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>102296</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>105819</xdr:rowOff>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -142,8 +151,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="6378358"/>
-          <a:ext cx="3018642" cy="1164790"/>
+          <a:off x="5831791" y="6211344"/>
+          <a:ext cx="2933694" cy="1102199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,11 +821,715 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>491205</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB7B586-25C4-4496-B70E-36F7F9C54077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10585174" y="381000"/>
+          <a:ext cx="2942857" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>405491</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE02DD7-7066-4152-B10A-F8229CEFDD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14262652" y="381000"/>
+          <a:ext cx="2857143" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>443586</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EE06AA-A898-421C-982E-D8C93B3436E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10585174" y="2476500"/>
+          <a:ext cx="2895238" cy="1161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>291205</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7160D684-51DB-4B92-B796-3EDCE070C164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14262652" y="2476500"/>
+          <a:ext cx="2742857" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>538824</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52095944-BA7F-4896-BD8C-6D2556CE502D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10585174" y="4762500"/>
+          <a:ext cx="2990476" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>386443</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ABAC50-E4F9-4D85-BB00-B15581C73B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14262652" y="4762500"/>
+          <a:ext cx="2838095" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>487505</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6180EECB-F731-4C2A-92C1-2847AF52781E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10800522" y="7081631"/>
+          <a:ext cx="2723809" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>434062</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E105DA3-0403-407B-9272-8A590E2E3B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14262652" y="7048500"/>
+          <a:ext cx="2885714" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>42703</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32A3EB8-8A06-4CBC-B463-26C820A9864D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10759109" y="9152283"/>
+          <a:ext cx="2933333" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>367396</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A75EDD9-AF4A-4828-A445-101AFAE50415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14262652" y="9144000"/>
+          <a:ext cx="2819048" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>500729</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0A1589-7B91-4792-8471-A992DD9EF414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10585174" y="11239500"/>
+          <a:ext cx="2952381" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>348348</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC66D96D-9322-471A-9FF5-7D4FE9241694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14262652" y="11239500"/>
+          <a:ext cx="2800000" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>472157</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD122EE-825D-4500-8DC7-A5D2D60FF051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19778870" y="381000"/>
+          <a:ext cx="2923809" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>224538</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97696043-F75C-4CB0-AA79-F8E3EB8EAFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22843435" y="381000"/>
+          <a:ext cx="2676190" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>395967</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331DC2C5-AF09-49B6-A3FD-6350A724B1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19778870" y="2667000"/>
+          <a:ext cx="2847619" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>415015</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A3BEB4-A8BB-4782-B89C-248D9ED1A8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22843435" y="2667000"/>
+          <a:ext cx="2866667" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1112,18 +1825,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE778A9-4D3C-48C5-AB4C-FA27ECD4C5EC}">
-  <dimension ref="B2:N68"/>
+  <dimension ref="B2:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1860,17 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.99</v>
       </c>
@@ -1158,8 +1880,26 @@
       <c r="D3">
         <v>1.349</v>
       </c>
+      <c r="O3">
+        <v>0.98</v>
+      </c>
+      <c r="P3">
+        <v>9.7704890686249204</v>
+      </c>
+      <c r="Q3">
+        <v>1.339</v>
+      </c>
+      <c r="AD3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>9.6998061850476596</v>
+      </c>
+      <c r="AF3">
+        <v>1.343</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.97</v>
       </c>
@@ -1170,7 +1910,30 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P14">
+        <v>9.6839753411006502</v>
+      </c>
+      <c r="Q14">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AE15">
+        <v>9.6998061850476596</v>
+      </c>
+      <c r="AF15">
+        <v>1.343</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.95</v>
       </c>
@@ -1181,7 +1944,18 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P26">
+        <v>9.6565756783133896</v>
+      </c>
+      <c r="Q26">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>0.9</v>
       </c>
@@ -1192,7 +1966,18 @@
         <v>1.272054</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P38">
+        <v>9.6632421391671102</v>
+      </c>
+      <c r="Q38">
+        <v>1.3480000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.8</v>
       </c>
@@ -1203,7 +1988,18 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="P49">
+        <v>9.8359765818973095</v>
+      </c>
+      <c r="Q49">
+        <v>1.3480000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.7</v>
       </c>
@@ -1214,7 +2010,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.6</v>
       </c>
@@ -1223,6 +2019,17 @@
       </c>
       <c r="D58">
         <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>0.9899</v>
+      </c>
+      <c r="P60">
+        <v>9.6348250887122902</v>
+      </c>
+      <c r="Q60">
+        <v>1.349</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -1242,6 +2049,7 @@
     <mergeCell ref="E2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
+++ b/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariagon\Documents\OptimalTaxation\Planner\GlobalAndEntrepreneurs\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2159B44C-1B10-4288-919B-78CCDF6F47B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573E588-86C6-4FC3-954F-820801326A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
+    <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mod h" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>gp</t>
   </si>
@@ -46,6 +47,51 @@
   </si>
   <si>
     <t>e(θ_w)_lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gp     =   0.983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ue0    =   100.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ue0    =   630.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    μe0    =   0.0 - 1.0e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ye0    =   0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    λe0    =   1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    le0    =   0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ωe0    =   0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ωe0    =   1.34232</t>
+  </si>
+  <si>
+    <t>El del equilibrio!</t>
+  </si>
+  <si>
+    <t>Equilibrium in new scenary:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gp     =   0.989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #ue0    =   100.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ue0    =   585.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ωe0    =   1.3</t>
   </si>
 </sst>
 </file>
@@ -69,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,15 +141,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +179,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
@@ -170,9 +223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>183061</xdr:colOff>
+      <xdr:colOff>177346</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>32490</xdr:rowOff>
+      <xdr:rowOff>26775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -214,9 +267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47258</xdr:colOff>
+      <xdr:colOff>54878</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9367</xdr:rowOff>
+      <xdr:rowOff>16987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,7 +313,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85758</xdr:rowOff>
+      <xdr:rowOff>95283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -302,9 +355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>66323</xdr:colOff>
+      <xdr:colOff>56798</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66526</xdr:rowOff>
+      <xdr:rowOff>57001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,9 +399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>93344</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>49800</xdr:rowOff>
+      <xdr:rowOff>53610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,7 +443,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>561063</xdr:colOff>
+      <xdr:colOff>551538</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>155615</xdr:rowOff>
     </xdr:to>
@@ -436,7 +489,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>37360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>124069</xdr:rowOff>
+      <xdr:rowOff>133594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -478,9 +531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>287055</xdr:colOff>
+      <xdr:colOff>283245</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>158388</xdr:rowOff>
+      <xdr:rowOff>164103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -522,7 +575,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>180359</xdr:colOff>
+      <xdr:colOff>170834</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>34333</xdr:rowOff>
     </xdr:to>
@@ -566,7 +619,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>126598</xdr:colOff>
+      <xdr:colOff>130408</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>112447</xdr:rowOff>
     </xdr:to>
@@ -610,9 +663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>138598</xdr:colOff>
+      <xdr:colOff>134788</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>46160</xdr:rowOff>
+      <xdr:rowOff>53780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -654,9 +707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>391691</xdr:colOff>
+      <xdr:colOff>401216</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>130478</xdr:rowOff>
+      <xdr:rowOff>134288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -698,9 +751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143528</xdr:colOff>
+      <xdr:colOff>135908</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>61979</xdr:rowOff>
+      <xdr:rowOff>58169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141743</xdr:colOff>
+      <xdr:colOff>132218</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>88071</xdr:rowOff>
+      <xdr:rowOff>91881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -786,9 +839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>352295</xdr:colOff>
+      <xdr:colOff>359915</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>108401</xdr:rowOff>
+      <xdr:rowOff>102686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -830,9 +883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>491205</xdr:colOff>
+      <xdr:colOff>485490</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47476</xdr:rowOff>
+      <xdr:rowOff>55096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -874,7 +927,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>405491</xdr:colOff>
+      <xdr:colOff>401681</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>37857</xdr:rowOff>
     </xdr:to>
@@ -918,9 +971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>443586</xdr:colOff>
+      <xdr:colOff>439776</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>18905</xdr:rowOff>
+      <xdr:rowOff>22715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -962,9 +1015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>291205</xdr:colOff>
+      <xdr:colOff>287395</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142619</xdr:rowOff>
+      <xdr:rowOff>133094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1006,9 +1059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>538824</xdr:colOff>
+      <xdr:colOff>544539</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>95119</xdr:rowOff>
+      <xdr:rowOff>98929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,9 +1103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>386443</xdr:colOff>
+      <xdr:colOff>392158</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>66429</xdr:rowOff>
+      <xdr:rowOff>56904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,9 +1147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>487505</xdr:colOff>
+      <xdr:colOff>479885</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>80631</xdr:rowOff>
+      <xdr:rowOff>86346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1138,9 +1191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>434062</xdr:colOff>
+      <xdr:colOff>437872</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>18810</xdr:rowOff>
+      <xdr:rowOff>22620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1182,9 +1235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>42703</xdr:colOff>
+      <xdr:colOff>48418</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>17664</xdr:rowOff>
+      <xdr:rowOff>21474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1226,9 +1279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>367396</xdr:colOff>
+      <xdr:colOff>363586</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>66429</xdr:rowOff>
+      <xdr:rowOff>56904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1270,7 +1323,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>500729</xdr:colOff>
+      <xdr:colOff>506444</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>114167</xdr:rowOff>
     </xdr:to>
@@ -1314,7 +1367,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>348348</xdr:colOff>
+      <xdr:colOff>354063</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>37857</xdr:rowOff>
     </xdr:to>
@@ -1358,9 +1411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>472157</xdr:colOff>
+      <xdr:colOff>475967</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>190357</xdr:rowOff>
+      <xdr:rowOff>175117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1402,7 +1455,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>224538</xdr:colOff>
+      <xdr:colOff>218823</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>37857</xdr:rowOff>
     </xdr:to>
@@ -1446,9 +1499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>395967</xdr:colOff>
+      <xdr:colOff>399777</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47476</xdr:rowOff>
+      <xdr:rowOff>55096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1490,9 +1543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>415015</xdr:colOff>
+      <xdr:colOff>409300</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>104524</xdr:rowOff>
+      <xdr:rowOff>94999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1517,6 +1570,99 @@
         <a:xfrm>
           <a:off x="22843435" y="2667000"/>
           <a:ext cx="2866667" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456838</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A6480-FC11-4FF4-970C-B07206AEA6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="542925"/>
+          <a:ext cx="2895238" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466362</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C20A64E-4036-4E81-BC45-FB2DC4F5F1FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="542925"/>
+          <a:ext cx="2904762" cy="1961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,18 +1971,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE778A9-4D3C-48C5-AB4C-FA27ECD4C5EC}">
-  <dimension ref="B2:AF68"/>
+  <dimension ref="B2:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView topLeftCell="AC13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29:AF34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1846,20 +1993,20 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.99</v>
       </c>
@@ -1899,7 +2046,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.97</v>
       </c>
@@ -1910,7 +2057,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="O14">
         <v>0.98499999999999999</v>
       </c>
@@ -1920,9 +2067,9 @@
       <c r="Q14">
         <v>1.3440000000000001</v>
       </c>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="AD15">
         <v>0.98299999999999998</v>
       </c>
@@ -1933,7 +2080,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0.95</v>
       </c>
@@ -1944,7 +2091,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="O26">
         <v>0.98799999999999999</v>
       </c>
@@ -1954,8 +2101,55 @@
       <c r="Q26">
         <v>1.347</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="AD26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="4"/>
+      <c r="AG26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AD28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AD29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AD30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="4"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AD31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AD32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE32" s="4"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AD33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>0.9</v>
       </c>
@@ -1965,8 +2159,18 @@
       <c r="D34" s="1">
         <v>1.272054</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="AD34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE34" s="4"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AD35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE35" s="4"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
       <c r="O38">
         <v>0.98899999999999999</v>
       </c>
@@ -1977,7 +2181,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0.8</v>
       </c>
@@ -1988,7 +2192,7 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O49">
         <v>0.98950000000000005</v>
       </c>
@@ -1999,7 +2203,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0.7</v>
       </c>
@@ -2010,7 +2214,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>0.6</v>
       </c>
@@ -2021,7 +2225,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O60">
         <v>0.9899</v>
       </c>
@@ -2032,7 +2236,7 @@
         <v>1.349</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>0.5</v>
       </c>
@@ -2052,4 +2256,73 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1D396-AA44-45C4-81D2-BCFA990AD9AC}">
+  <dimension ref="B2:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
+++ b/Planner/GlobalAndEntrepreneurs/Graphs/Max_Omega.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariagon\Documents\OptimalTaxation\Planner\GlobalAndEntrepreneurs\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573E588-86C6-4FC3-954F-820801326A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916888AC-F8C1-496E-9544-128E201389B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1215" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEB8DBEC-5579-4831-977D-E01700606C00}"/>
   </bookViews>
@@ -31,8 +31,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B469EFBB-9475-472A-A6B2-E0DAB426B3ED}</author>
+  </authors>
+  <commentList>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{B469EFBB-9475-472A-A6B2-E0DAB426B3ED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Con el y cuadrado.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>gp</t>
   </si>
@@ -93,12 +111,30 @@
   <si>
     <t xml:space="preserve">    ωe0    =   1.3</t>
   </si>
+  <si>
+    <t xml:space="preserve">    gp     =   0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ωe0    =   1.34297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ue0    =   640.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #ue0    =   600.0</t>
+  </si>
+  <si>
+    <t>Range omega (solution different than 0)</t>
+  </si>
+  <si>
+    <t>[1.3426,1.34297]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +149,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,10 +189,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,7 +1678,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466362</xdr:colOff>
+      <xdr:colOff>466361</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152155</xdr:rowOff>
     </xdr:to>
@@ -1671,7 +1713,101 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557938</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1686B18E-6527-4352-8FA6-6C8C42F4B579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3560885" y="3238500"/>
+          <a:ext cx="2990476" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>329366</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0767E7-0C62-4A4F-9DBC-78FBFFA743F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7209692" y="3238500"/>
+          <a:ext cx="2761905" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gonzalez Jaramillo, Maria Jose" id="{4FE26F56-AC29-4B31-83C8-E51174620D66}" userId="S::MARIAGON@iadb.org::42925423-0e41-4a45-af5f-54535e62a1f5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1969,21 +2105,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B29" dT="2020-02-25T19:48:46.05" personId="{4FE26F56-AC29-4B31-83C8-E51174620D66}" id="{B469EFBB-9475-472A-A6B2-E0DAB426B3ED}">
+    <text>Con el y cuadrado.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE778A9-4D3C-48C5-AB4C-FA27ECD4C5EC}">
   <dimension ref="B2:AG68"/>
   <sheetViews>
-    <sheetView topLeftCell="AC13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29:AF34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,20 +2137,20 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.99</v>
       </c>
@@ -2046,7 +2190,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.97</v>
       </c>
@@ -2057,7 +2201,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="O14">
         <v>0.98499999999999999</v>
       </c>
@@ -2069,7 +2213,7 @@
       </c>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AD15">
         <v>0.98299999999999998</v>
       </c>
@@ -2080,7 +2224,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.95</v>
       </c>
@@ -2091,7 +2235,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="O26">
         <v>0.98799999999999999</v>
       </c>
@@ -2101,55 +2245,55 @@
       <c r="Q26">
         <v>1.347</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AD26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE26" s="4"/>
+      <c r="AE26" s="3"/>
       <c r="AG26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AD28" s="4" t="s">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AE28" s="4"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AD29" s="4" t="s">
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="4"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AD30" s="4" t="s">
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE30" s="4"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AD31" s="4" t="s">
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AE31" s="4"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AD32" s="4" t="s">
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AE32" s="4"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="AD33" s="4" t="s">
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE33" s="4"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>0.9</v>
       </c>
@@ -2159,18 +2303,18 @@
       <c r="D34" s="1">
         <v>1.272054</v>
       </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AD34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE34" s="4"/>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="AD35" s="4" t="s">
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AE35" s="4"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O38">
         <v>0.98899999999999999</v>
       </c>
@@ -2181,7 +2325,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.8</v>
       </c>
@@ -2192,7 +2336,7 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O49">
         <v>0.98950000000000005</v>
       </c>
@@ -2203,7 +2347,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.7</v>
       </c>
@@ -2214,7 +2358,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.6</v>
       </c>
@@ -2225,7 +2369,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O60">
         <v>0.9899</v>
       </c>
@@ -2236,7 +2380,7 @@
         <v>1.349</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.5</v>
       </c>
@@ -2259,70 +2403,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1D396-AA44-45C4-81D2-BCFA990AD9AC}">
-  <dimension ref="B2:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1D396-AA44-45C4-81D2-BCFA990AD9AC}">
+  <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>